--- a/assets/images/readme_images/testing/Testing-detail.xlsx
+++ b/assets/images/readme_images/testing/Testing-detail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alixo\OneDrive\Documents\Code Institute\Milestone 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6375be916376b5e/Documents/Code Institute/Milestone 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EE22FD-9C68-405A-AAB2-6ED9235730F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{06EE22FD-9C68-405A-AAB2-6ED9235730F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D612A396-D029-48CA-83FD-8528763B286B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FD4AC89-9AD1-49D5-8A7C-9BB3645B7EF4}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>The wireframes and the website will be identical.</t>
   </si>
   <si>
-    <t>The wireframes and the website are not identical.</t>
-  </si>
-  <si>
     <t>The colours of the website are corresponding to the colours I picked on the Coolors website.</t>
   </si>
   <si>
@@ -254,6 +251,9 @@
   </si>
   <si>
     <t>The first carousel is prefect. The issue with the second carousel is that the buttons was controlling the first carousel and not the second. Buttons on the bottom carousel were removed.</t>
+  </si>
+  <si>
+    <t>The wireframes for the gallery and the contact us page are very  similar but the rest of the pages are not identical.</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16C5BA2-B628-47C5-BC2F-D4383BFD47CF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,10 +756,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
@@ -779,10 +779,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -825,10 +825,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -848,10 +848,10 @@
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
